--- a/data/lca/mock/forestry_energy.xlsx
+++ b/data/lca/mock/forestry_energy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucas/repos/onearth/platform-v3-backend/src/data/lca/mock/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucas/repos/onearth/lca/data/lca/mock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D1091CA-6145-264E-B7D0-300F3081C6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D256C9-B28B-B84C-8AEA-8D3CC2C3E46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4060" yWindow="3160" windowWidth="27240" windowHeight="16440" xr2:uid="{D319F983-8E99-0D41-8840-A20EBBA59557}"/>
+    <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="25700" xr2:uid="{D319F983-8E99-0D41-8840-A20EBBA59557}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Unidade Florestal</t>
   </si>
@@ -44,30 +44,9 @@
     <t>Fonte de Energia</t>
   </si>
   <si>
-    <t>Consumo - Jan</t>
-  </si>
-  <si>
-    <t>Consumo - Fev</t>
-  </si>
-  <si>
-    <t>Consumo - Mar</t>
-  </si>
-  <si>
-    <t>Consumo - Abr</t>
-  </si>
-  <si>
-    <t>Consumo - Mai</t>
-  </si>
-  <si>
-    <t>Consumo - Jun</t>
-  </si>
-  <si>
     <t>Unidade de medida</t>
   </si>
   <si>
-    <t>Tipo Dado / Confiabilidade do Dado</t>
-  </si>
-  <si>
     <t>Rastreabilidade</t>
   </si>
   <si>
@@ -105,6 +84,48 @@
   </si>
   <si>
     <t>INH (100% Energia Solar)</t>
+  </si>
+  <si>
+    <t>Consumo - Janeiro</t>
+  </si>
+  <si>
+    <t>Consumo - Fevereiro</t>
+  </si>
+  <si>
+    <t>Consumo - Março</t>
+  </si>
+  <si>
+    <t>Consumo - Abril</t>
+  </si>
+  <si>
+    <t>Consumo - Maio</t>
+  </si>
+  <si>
+    <t>Consumo - Junho</t>
+  </si>
+  <si>
+    <t>Consumo - Julho</t>
+  </si>
+  <si>
+    <t>Consumo - Agosto</t>
+  </si>
+  <si>
+    <t>Consumo - Setembro</t>
+  </si>
+  <si>
+    <t>Consumo - Outubro</t>
+  </si>
+  <si>
+    <t>Consumo - Novembro</t>
+  </si>
+  <si>
+    <t>Consumo - Dezembro</t>
+  </si>
+  <si>
+    <t>Tipo de dado coletado</t>
+  </si>
+  <si>
+    <t>Ano</t>
   </si>
 </sst>
 </file>
@@ -536,226 +557,299 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F995281-92A4-CC40-B5D0-82923A68EB4C}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="55.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="55.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D2" s="3">
+        <v>9732.3333333333339</v>
+      </c>
+      <c r="E2" s="3">
+        <v>9434.3333333333339</v>
+      </c>
+      <c r="F2" s="3">
+        <v>10659.333333333334</v>
+      </c>
+      <c r="G2" s="3">
+        <v>10545.666666666666</v>
+      </c>
+      <c r="H2" s="3">
+        <v>11064</v>
+      </c>
+      <c r="I2" s="3">
+        <v>10272</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="Q2" s="3"/>
+      <c r="R2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="D3" s="3">
+        <v>9732.3333333333339</v>
+      </c>
+      <c r="E3" s="3">
+        <v>9434.3333333333339</v>
+      </c>
+      <c r="F3" s="3">
+        <v>10659.333333333334</v>
+      </c>
+      <c r="G3" s="3">
+        <v>10545.666666666666</v>
+      </c>
+      <c r="H3" s="3">
+        <v>11064</v>
+      </c>
+      <c r="I3" s="3">
+        <v>10272</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3">
+        <v>9732.3333333333339</v>
+      </c>
+      <c r="E4" s="3">
+        <v>9434.3333333333339</v>
+      </c>
+      <c r="F4" s="3">
+        <v>10659.333333333334</v>
+      </c>
+      <c r="G4" s="3">
+        <v>10545.666666666666</v>
+      </c>
+      <c r="H4" s="3">
+        <v>11064</v>
+      </c>
+      <c r="I4" s="3">
+        <v>10272</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3">
-        <v>9732.3333333333339</v>
-      </c>
-      <c r="D2" s="3">
-        <v>9434.3333333333339</v>
-      </c>
-      <c r="E2" s="3">
-        <v>10659.333333333334</v>
-      </c>
-      <c r="F2" s="3">
-        <v>10545.666666666666</v>
-      </c>
-      <c r="G2" s="3">
-        <v>11064</v>
-      </c>
-      <c r="H2" s="3">
-        <v>10272</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="5" t="s">
+      <c r="D5" s="3">
+        <v>6020</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F5" s="3">
+        <v>6160</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5740</v>
+      </c>
+      <c r="H5" s="3">
+        <v>6580</v>
+      </c>
+      <c r="I5" s="3">
+        <v>5880</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="3">
-        <v>9732.3333333333339</v>
-      </c>
-      <c r="D3" s="3">
-        <v>9434.3333333333339</v>
-      </c>
-      <c r="E3" s="3">
-        <v>10659.333333333334</v>
-      </c>
-      <c r="F3" s="3">
-        <v>10545.666666666666</v>
-      </c>
-      <c r="G3" s="3">
-        <v>11064</v>
-      </c>
-      <c r="H3" s="3">
-        <v>10272</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="5" t="s">
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3">
+        <v>632</v>
+      </c>
+      <c r="E6" s="3">
+        <v>320</v>
+      </c>
+      <c r="F6" s="3">
+        <v>622</v>
+      </c>
+      <c r="G6" s="3">
+        <v>568</v>
+      </c>
+      <c r="H6" s="3">
+        <v>360</v>
+      </c>
+      <c r="I6" s="3">
+        <v>580</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3">
-        <v>9732.3333333333339</v>
-      </c>
-      <c r="D4" s="3">
-        <v>9434.3333333333339</v>
-      </c>
-      <c r="E4" s="3">
-        <v>10659.333333333334</v>
-      </c>
-      <c r="F4" s="3">
-        <v>10545.666666666666</v>
-      </c>
-      <c r="G4" s="3">
-        <v>11064</v>
-      </c>
-      <c r="H4" s="3">
-        <v>10272</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="3">
-        <v>6020</v>
-      </c>
-      <c r="D5" s="3">
-        <v>5600</v>
-      </c>
-      <c r="E5" s="3">
-        <v>6160</v>
-      </c>
-      <c r="F5" s="3">
-        <v>5740</v>
-      </c>
-      <c r="G5" s="3">
-        <v>6580</v>
-      </c>
-      <c r="H5" s="3">
-        <v>5880</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3">
-        <v>632</v>
-      </c>
-      <c r="D6" s="3">
-        <v>320</v>
-      </c>
-      <c r="E6" s="3">
-        <v>622</v>
-      </c>
-      <c r="F6" s="3">
-        <v>568</v>
-      </c>
-      <c r="G6" s="3">
-        <v>360</v>
-      </c>
-      <c r="H6" s="3">
-        <v>580</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>